--- a/content/Book Four 23-31.xlsx
+++ b/content/Book Four 23-31.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A6ECD7-22C9-4231-BB22-577535FB6EBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8121E2B-1829-42B0-9F0B-17F7394285D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4-23" sheetId="1" r:id="rId1"/>
@@ -17618,8 +17618,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F335"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A334" sqref="A334:A335"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21504,7 +21504,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>5725</v>
+        <v>5728</v>
       </c>
       <c r="B244" s="1">
         <v>29</v>
@@ -71097,7 +71097,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A240" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
